--- a/Bookings.xlsx
+++ b/Bookings.xlsx
@@ -738,39 +738,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
+<ns0:worksheet xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ns1="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <ns0:sheetPr>
+    <ns0:outlinePr summaryBelow="0" summaryRight="0"/>
+  </ns0:sheetPr>
+  <ns0:sheetViews>
+    <ns0:sheetView workbookViewId="0"/>
+  </ns0:sheetViews>
+  <ns0:sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <ns0:sheetData>
+    <ns0:row r="1">
+      <ns0:c r="A1" s="1" t="s">
+        <ns0:v>59</ns0:v>
+      </ns0:c>
+      <ns0:c r="B1" s="1" t="s">
+        <ns0:v>0</ns0:v>
+      </ns0:c>
+      <ns0:c r="C1" s="1" t="s">
+        <ns0:v>10</ns0:v>
+      </ns0:c>
+      <ns0:c r="D1" s="1" t="s">
+        <ns0:v>60</ns0:v>
+      </ns0:c>
+      <ns0:c r="E1" s="1" t="s">
+        <ns0:v>61</ns0:v>
+      </ns0:c>
+      <ns0:c r="F1" s="1" t="s">
+        <ns0:v>62</ns0:v>
+      </ns0:c>
+      <ns0:c r="G1" s="1" t="s">
+        <ns0:v>63</ns0:v>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="2">
+      <ns0:c r="A2" t="inlineStr">
+        <ns0:is>
+          <ns0:t>2025-11-04T08:43:22</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="B2" t="inlineStr">
+        <ns0:is>
+          <ns0:t>CT-01</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="C2" t="inlineStr">
+        <ns0:is>
+          <ns0:t>it</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="D2" t="inlineStr">
+        <ns0:is>
+          <ns0:t>wifi</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="E2" t="inlineStr">
+        <ns0:is>
+          <ns0:t>WIFI
+SSID: FamedaHouse_WIFI
+PASSWORD: Sole123
+NOTE: Copertura migliore in soggiorno.</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="F2" t="inlineStr">
+        <ns0:is>
+          <ns0:t>no</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="G2" t="inlineStr">
+        <ns0:is>
+          <ns0:t>booking_found=False</ns0:t>
+        </ns0:is>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="3">
+      <ns0:c r="A3" t="inlineStr">
+        <ns0:is>
+          <ns0:t>2025-11-04T08:44:10</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="B3" t="inlineStr">
+        <ns0:is>
+          <ns0:t>CT-01</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="C3" t="inlineStr">
+        <ns0:is>
+          <ns0:t>it</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="D3" t="inlineStr">
+        <ns0:is>
+          <ns0:t>Ho una prenotazione dal 05/11/2025 al 10/11/2025</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="E3" t="inlineStr">
+        <ns0:is>
+          <ns0:t>Il concierge è attivo ma il servizio AI non è configurato. Le risposte verranno gestite dall’host.</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="F3" t="inlineStr">
+        <ns0:is>
+          <ns0:t>yes</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="G3" t="inlineStr">
+        <ns0:is>
+          <ns0:t>booking_found=False</ns0:t>
+        </ns0:is>
+      </ns0:c>
+    </ns0:row>
+  </ns0:sheetData>
+  <ns0:drawing ns1:id="rId1"/>
+  <ns0:dimension ref="A1:G3"/>
+</ns0:worksheet>
 </file>
--- a/Bookings.xlsx
+++ b/Bookings.xlsx
@@ -847,8 +847,85 @@
         </ns0:is>
       </ns0:c>
     </ns0:row>
+    <ns0:row r="4">
+      <ns0:c r="A4" t="inlineStr">
+        <ns0:is>
+          <ns0:t>2025-11-04T11:53:08</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="B4" t="inlineStr">
+        <ns0:is>
+          <ns0:t>CT-01</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="C4" t="inlineStr">
+        <ns0:is>
+          <ns0:t>it</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="D4" t="inlineStr">
+        <ns0:is>
+          <ns0:t>come mi chiamo</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="E4" t="inlineStr">
+        <ns0:is>
+          <ns0:t>Il concierge è attivo ma il servizio AI non è configurato. Le risposte verranno gestite dall’host.</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="F4" t="inlineStr">
+        <ns0:is>
+          <ns0:t>yes</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="G4" t="inlineStr">
+        <ns0:is>
+          <ns0:t>booking_found=True</ns0:t>
+        </ns0:is>
+      </ns0:c>
+    </ns0:row>
+    <ns0:row r="5">
+      <ns0:c r="A5" t="inlineStr">
+        <ns0:is>
+          <ns0:t>2025-11-04T12:32:56</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="B5" t="inlineStr">
+        <ns0:is>
+          <ns0:t>CT-01</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="C5" t="inlineStr">
+        <ns0:is>
+          <ns0:t>it</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="D5" t="inlineStr">
+        <ns0:is>
+          <ns0:t>wifi</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="E5" t="inlineStr">
+        <ns0:is>
+          <ns0:t>WIFI
+SSID: FamedaHouse_WIFI
+PASSWORD: Sole123
+NOTE: Copertura migliore in soggiorno.</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="F5" t="inlineStr">
+        <ns0:is>
+          <ns0:t>no</ns0:t>
+        </ns0:is>
+      </ns0:c>
+      <ns0:c r="G5" t="inlineStr">
+        <ns0:is>
+          <ns0:t>booking_found=True</ns0:t>
+        </ns0:is>
+      </ns0:c>
+    </ns0:row>
   </ns0:sheetData>
   <ns0:drawing ns1:id="rId1"/>
-  <ns0:dimension ref="A1:G3"/>
+  <ns0:dimension ref="A1:G5"/>
 </ns0:worksheet>
 </file>
--- a/Bookings.xlsx
+++ b/Bookings.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>property_id</t>
   </si>
@@ -104,12 +104,6 @@
     <t>manual</t>
   </si>
   <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>2025-12-13</t>
-  </si>
-  <si>
     <t>Mario</t>
   </si>
   <si>
@@ -161,12 +155,6 @@
     <t>Booking</t>
   </si>
   <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
     <t>11:00</t>
   </si>
   <si>
@@ -204,14 +192,60 @@
   </si>
   <si>
     <t>extra</t>
+  </si>
+  <si>
+    <t>2025-11-03T15:32:37</t>
+  </si>
+  <si>
+    <t>password wifi</t>
+  </si>
+  <si>
+    <t>WIFI
+SSID: FamedaHouse_WIFI
+PASSWORD: Sole123
+NOTE: Copertura migliore in soggiorno.</t>
+  </si>
+  <si>
+    <t>booking_found=False</t>
+  </si>
+  <si>
+    <t>2025-11-03T15:33:00</t>
+  </si>
+  <si>
+    <t>chackin</t>
+  </si>
+  <si>
+    <t>Il concierge è attivo ma il servizio AI non è configurato. Le risposte verranno gestite dall’host.</t>
+  </si>
+  <si>
+    <t>2025-11-03T15:33:55</t>
+  </si>
+  <si>
+    <t>check-in</t>
+  </si>
+  <si>
+    <t>2025-11-03T15:34:10</t>
+  </si>
+  <si>
+    <t>Dove posso andare a cena</t>
+  </si>
+  <si>
+    <t>2025-11-03T16:46:35</t>
+  </si>
+  <si>
+    <t>Mi serve un ristorante</t>
+  </si>
+  <si>
+    <t>2025-11-03T16:46:59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="165" formatCode="H.mm.ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -240,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -250,8 +284,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,6 +512,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="10" max="10" width="21.38"/>
+    <col customWidth="1" min="16" max="16" width="17.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -542,7 +586,7 @@
       <c r="D2" s="2">
         <v>45961.0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2">
@@ -583,29 +627,29 @@
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2">
+        <v>46001.0</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
+      <c r="F3" s="2">
+        <v>46004.0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>25</v>
@@ -616,14 +660,14 @@
       <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -631,52 +675,52 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2">
+        <v>46001.0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -684,52 +728,67 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45962.0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45968.0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="O5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="Q5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>58</v>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45966.0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="2">
+        <v>45971.0</v>
       </c>
     </row>
   </sheetData>
@@ -738,194 +797,177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<ns0:worksheet xmlns:ns0="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ns1="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <ns0:sheetPr>
-    <ns0:outlinePr summaryBelow="0" summaryRight="0"/>
-  </ns0:sheetPr>
-  <ns0:sheetViews>
-    <ns0:sheetView workbookViewId="0"/>
-  </ns0:sheetViews>
-  <ns0:sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <ns0:sheetData>
-    <ns0:row r="1">
-      <ns0:c r="A1" s="1" t="s">
-        <ns0:v>59</ns0:v>
-      </ns0:c>
-      <ns0:c r="B1" s="1" t="s">
-        <ns0:v>0</ns0:v>
-      </ns0:c>
-      <ns0:c r="C1" s="1" t="s">
-        <ns0:v>10</ns0:v>
-      </ns0:c>
-      <ns0:c r="D1" s="1" t="s">
-        <ns0:v>60</ns0:v>
-      </ns0:c>
-      <ns0:c r="E1" s="1" t="s">
-        <ns0:v>61</ns0:v>
-      </ns0:c>
-      <ns0:c r="F1" s="1" t="s">
-        <ns0:v>62</ns0:v>
-      </ns0:c>
-      <ns0:c r="G1" s="1" t="s">
-        <ns0:v>63</ns0:v>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="2">
-      <ns0:c r="A2" t="inlineStr">
-        <ns0:is>
-          <ns0:t>2025-11-04T08:43:22</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="B2" t="inlineStr">
-        <ns0:is>
-          <ns0:t>CT-01</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="C2" t="inlineStr">
-        <ns0:is>
-          <ns0:t>it</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="D2" t="inlineStr">
-        <ns0:is>
-          <ns0:t>wifi</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="E2" t="inlineStr">
-        <ns0:is>
-          <ns0:t>WIFI
-SSID: FamedaHouse_WIFI
-PASSWORD: Sole123
-NOTE: Copertura migliore in soggiorno.</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="F2" t="inlineStr">
-        <ns0:is>
-          <ns0:t>no</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="G2" t="inlineStr">
-        <ns0:is>
-          <ns0:t>booking_found=False</ns0:t>
-        </ns0:is>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="3">
-      <ns0:c r="A3" t="inlineStr">
-        <ns0:is>
-          <ns0:t>2025-11-04T08:44:10</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="B3" t="inlineStr">
-        <ns0:is>
-          <ns0:t>CT-01</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="C3" t="inlineStr">
-        <ns0:is>
-          <ns0:t>it</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="D3" t="inlineStr">
-        <ns0:is>
-          <ns0:t>Ho una prenotazione dal 05/11/2025 al 10/11/2025</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="E3" t="inlineStr">
-        <ns0:is>
-          <ns0:t>Il concierge è attivo ma il servizio AI non è configurato. Le risposte verranno gestite dall’host.</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="F3" t="inlineStr">
-        <ns0:is>
-          <ns0:t>yes</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="G3" t="inlineStr">
-        <ns0:is>
-          <ns0:t>booking_found=False</ns0:t>
-        </ns0:is>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="4">
-      <ns0:c r="A4" t="inlineStr">
-        <ns0:is>
-          <ns0:t>2025-11-04T11:53:08</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="B4" t="inlineStr">
-        <ns0:is>
-          <ns0:t>CT-01</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="C4" t="inlineStr">
-        <ns0:is>
-          <ns0:t>it</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="D4" t="inlineStr">
-        <ns0:is>
-          <ns0:t>come mi chiamo</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="E4" t="inlineStr">
-        <ns0:is>
-          <ns0:t>Il concierge è attivo ma il servizio AI non è configurato. Le risposte verranno gestite dall’host.</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="F4" t="inlineStr">
-        <ns0:is>
-          <ns0:t>yes</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="G4" t="inlineStr">
-        <ns0:is>
-          <ns0:t>booking_found=True</ns0:t>
-        </ns0:is>
-      </ns0:c>
-    </ns0:row>
-    <ns0:row r="5">
-      <ns0:c r="A5" t="inlineStr">
-        <ns0:is>
-          <ns0:t>2025-11-04T12:32:56</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="B5" t="inlineStr">
-        <ns0:is>
-          <ns0:t>CT-01</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="C5" t="inlineStr">
-        <ns0:is>
-          <ns0:t>it</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="D5" t="inlineStr">
-        <ns0:is>
-          <ns0:t>wifi</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="E5" t="inlineStr">
-        <ns0:is>
-          <ns0:t>WIFI
-SSID: FamedaHouse_WIFI
-PASSWORD: Sole123
-NOTE: Copertura migliore in soggiorno.</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="F5" t="inlineStr">
-        <ns0:is>
-          <ns0:t>no</ns0:t>
-        </ns0:is>
-      </ns0:c>
-      <ns0:c r="G5" t="inlineStr">
-        <ns0:is>
-          <ns0:t>booking_found=True</ns0:t>
-        </ns0:is>
-      </ns0:c>
-    </ns0:row>
-  </ns0:sheetData>
-  <ns0:drawing ns1:id="rId1"/>
-  <ns0:dimension ref="A1:G5"/>
-</ns0:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>